--- a/output/excel/0 语言包.xlsx
+++ b/output/excel/0 语言包.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="25600" windowHeight="10870"/>
   </bookViews>
   <sheets>
     <sheet name="t_language" sheetId="1" r:id="rId1"/>
     <sheet name="規則" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">t_language!$A$5:$P$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">t_language!$A$5:$P$34</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -272,9 +272,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
@@ -315,8 +315,133 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -332,61 +457,11 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -397,120 +472,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -518,8 +479,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,6 +498,44 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -605,37 +605,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799340800195319"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799340800195319"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.396649067659536"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.396649067659536"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.396649067659536"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,19 +797,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,13 +809,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799340800195319"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,169 +833,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799340800195319"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799340800195319"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799340800195319"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.396649067659536"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799340800195319"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799340800195319"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.396649067659536"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.396649067659536"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.396649067659536"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799340800195319"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.396649067659536"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,6 +899,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -923,56 +962,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -993,6 +982,17 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1026,25 +1026,25 @@
   </borders>
   <cellStyleXfs count="515">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1054,816 +1054,816 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1878,353 +1878,353 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2236,46 +2236,46 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2362,128 +2362,128 @@
   </cellXfs>
   <cellStyles count="515">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="常规 10 3 4 4" xfId="2"/>
-    <cellStyle name="常规 10 3 4 2 2" xfId="3"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="4"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="5" builtinId="38"/>
-    <cellStyle name="常规 10 3 2 2 2 2" xfId="6"/>
+    <cellStyle name="常规 10 3 4 2 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="2" builtinId="7"/>
+    <cellStyle name="常规 10 3 4 4" xfId="3"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="4" builtinId="38"/>
+    <cellStyle name="常规 10 3 2 2 2 2" xfId="5"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="6"/>
     <cellStyle name="输入" xfId="7" builtinId="20"/>
     <cellStyle name="货币" xfId="8" builtinId="4"/>
     <cellStyle name="常规 3 4 3" xfId="9"/>
     <cellStyle name="千位分隔[0]" xfId="10" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="11" builtinId="39"/>
-    <cellStyle name="计算 2" xfId="12"/>
-    <cellStyle name="千位分隔" xfId="13" builtinId="3"/>
-    <cellStyle name="常规 7 3" xfId="14"/>
-    <cellStyle name="常规 2 10 2 3 3 3" xfId="15"/>
+    <cellStyle name="常规 7 3" xfId="11"/>
+    <cellStyle name="千位分隔" xfId="12" builtinId="3"/>
+    <cellStyle name="常规 2 10 2 3 3 3" xfId="13"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="14" builtinId="39"/>
+    <cellStyle name="计算 2" xfId="15"/>
     <cellStyle name="差" xfId="16" builtinId="27"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="17"/>
-    <cellStyle name="解释性文本 2 3" xfId="18"/>
-    <cellStyle name="标题 5" xfId="19"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="20"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="21" builtinId="40"/>
-    <cellStyle name="常规 2 11 2 2 2 2 2 2" xfId="22"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8"/>
-    <cellStyle name="常规 3 3 3 4 3 2 2" xfId="24"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8"/>
+    <cellStyle name="常规 3 3 3 4 3 2 2" xfId="18"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="19" builtinId="40"/>
+    <cellStyle name="常规 2 11 2 2 2 2 2 2" xfId="20"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="21"/>
+    <cellStyle name="标题 5" xfId="22"/>
+    <cellStyle name="解释性文本 2 3" xfId="23"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="24"/>
     <cellStyle name="常规 2 11 2 2 2 2 2 4 4 2" xfId="25"/>
     <cellStyle name="百分比" xfId="26" builtinId="5"/>
-    <cellStyle name="输出 2 2 2" xfId="27"/>
-    <cellStyle name="常规 10 3 2 3 4 2" xfId="28"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="29"/>
-    <cellStyle name="常规 13 2 3 3 3" xfId="30"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 2 2" xfId="31"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="33"/>
-    <cellStyle name="常规 2 10 2 3 2" xfId="34"/>
-    <cellStyle name="注释" xfId="35" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="36" builtinId="36"/>
-    <cellStyle name="解释性文本 2 2" xfId="37"/>
-    <cellStyle name="常规 13 2 3 2 2 2" xfId="38"/>
-    <cellStyle name="标题 4" xfId="39" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="40" builtinId="11"/>
-    <cellStyle name="常规 4 4 3" xfId="41"/>
+    <cellStyle name="常规 13 2 3 3 3" xfId="27"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 2 2" xfId="28"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9"/>
+    <cellStyle name="常规 2 10 2 3 2" xfId="30"/>
+    <cellStyle name="注释" xfId="31" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="32"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="33" builtinId="36"/>
+    <cellStyle name="常规 13 2 3 2 2 2" xfId="34"/>
+    <cellStyle name="标题 4" xfId="35" builtinId="19"/>
+    <cellStyle name="解释性文本 2 2" xfId="36"/>
+    <cellStyle name="警告文本" xfId="37" builtinId="11"/>
+    <cellStyle name="常规 4 4 3" xfId="38"/>
+    <cellStyle name="常规 5 2" xfId="39"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="40"/>
+    <cellStyle name="标题" xfId="41" builtinId="15"/>
     <cellStyle name="强调文字颜色 1 2 3" xfId="42"/>
-    <cellStyle name="常规 5 2" xfId="43"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 2" xfId="44"/>
-    <cellStyle name="标题" xfId="45" builtinId="15"/>
-    <cellStyle name="常规 13 2 3 2" xfId="46"/>
-    <cellStyle name="解释性文本" xfId="47" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="48" builtinId="16"/>
-    <cellStyle name="常规 5 2 2" xfId="49"/>
-    <cellStyle name="60% - 强调文字颜色 2 2 2 2" xfId="50"/>
-    <cellStyle name="标题 2" xfId="51" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="52" builtinId="32"/>
-    <cellStyle name="常规 10 3 4 4 2" xfId="53"/>
-    <cellStyle name="常规 10 3 4 2 2 2" xfId="54"/>
-    <cellStyle name="标题 3" xfId="55" builtinId="18"/>
-    <cellStyle name="常规 2 11 2 2 2 2 2 3" xfId="56"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="57" builtinId="44"/>
-    <cellStyle name="输出" xfId="58" builtinId="21"/>
-    <cellStyle name="常规 3 3 3 2 2 3" xfId="59"/>
-    <cellStyle name="计算" xfId="60" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="61" builtinId="23"/>
-    <cellStyle name="常规 13 5" xfId="62"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="63"/>
-    <cellStyle name="常规 8 3" xfId="64"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="65" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="66" builtinId="33"/>
-    <cellStyle name="常规 10 3 4 3 2 2" xfId="67"/>
-    <cellStyle name="链接单元格" xfId="68" builtinId="24"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 3" xfId="69"/>
-    <cellStyle name="汇总" xfId="70" builtinId="25"/>
-    <cellStyle name="好" xfId="71" builtinId="26"/>
-    <cellStyle name="适中" xfId="72" builtinId="28"/>
-    <cellStyle name="常规 8 2" xfId="73"/>
-    <cellStyle name="常规 2 10 2 3 4 2" xfId="74"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="75" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="76" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="77" builtinId="30"/>
-    <cellStyle name="常规 3 3 3 3 2 2" xfId="78"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="79" builtinId="31"/>
-    <cellStyle name="输出 2" xfId="80"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="81" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="82" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="83" builtinId="37"/>
-    <cellStyle name="常规 2 11 2 2 2 2 2 2 3 2 2 2" xfId="84"/>
-    <cellStyle name="常规 10 3 3 2" xfId="85"/>
-    <cellStyle name="强调文字颜色 4" xfId="86" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="87" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="88" builtinId="43"/>
-    <cellStyle name="常规 10 3 3 3" xfId="89"/>
-    <cellStyle name="强调文字颜色 5" xfId="90" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="91" builtinId="47"/>
-    <cellStyle name="常规 2 11 2 2 2 2 2 4 2 2 2" xfId="92"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 2 2" xfId="93"/>
-    <cellStyle name="常规 13 2 2 2" xfId="94"/>
-    <cellStyle name="常规 2 11 2 2 2 2 2 4" xfId="95"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="96" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="97" builtinId="49"/>
-    <cellStyle name="适中 2" xfId="98"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="99" builtinId="51"/>
-    <cellStyle name="常规 13 2 2 3" xfId="100"/>
-    <cellStyle name="常规 2 11 2 2 2 2 2 5" xfId="101"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="102" builtinId="52"/>
-    <cellStyle name="常规 3 2 2" xfId="103"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="104"/>
+    <cellStyle name="常规 13 2 3 2" xfId="43"/>
+    <cellStyle name="解释性文本" xfId="44" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="45" builtinId="16"/>
+    <cellStyle name="常规 5 2 2" xfId="46"/>
+    <cellStyle name="60% - 强调文字颜色 2 2 2 2" xfId="47"/>
+    <cellStyle name="标题 2" xfId="48" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="49" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="50" builtinId="18"/>
+    <cellStyle name="常规 10 3 4 2 2 2" xfId="51"/>
+    <cellStyle name="常规 10 3 4 4 2" xfId="52"/>
+    <cellStyle name="常规 2 11 2 2 2 2 2 3" xfId="53"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="54" builtinId="44"/>
+    <cellStyle name="输出" xfId="55" builtinId="21"/>
+    <cellStyle name="计算" xfId="56" builtinId="22"/>
+    <cellStyle name="常规 3 3 3 2 2 3" xfId="57"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="58"/>
+    <cellStyle name="检查单元格" xfId="59" builtinId="23"/>
+    <cellStyle name="常规 13 5" xfId="60"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="61" builtinId="50"/>
+    <cellStyle name="常规 8 3" xfId="62"/>
+    <cellStyle name="强调文字颜色 2" xfId="63" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="64" builtinId="24"/>
+    <cellStyle name="常规 10 3 4 3 2 2" xfId="65"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 3" xfId="66"/>
+    <cellStyle name="汇总" xfId="67" builtinId="25"/>
+    <cellStyle name="好" xfId="68" builtinId="26"/>
+    <cellStyle name="适中" xfId="69" builtinId="28"/>
+    <cellStyle name="常规 2 10 2 3 4 2" xfId="70"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="71" builtinId="46"/>
+    <cellStyle name="常规 8 2" xfId="72"/>
+    <cellStyle name="强调文字颜色 1" xfId="73" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="74" builtinId="30"/>
+    <cellStyle name="常规 3 3 3 3 2 2" xfId="75"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="76" builtinId="31"/>
+    <cellStyle name="输出 2" xfId="77"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="78" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="79" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="80" builtinId="37"/>
+    <cellStyle name="常规 10 3 3 2" xfId="81"/>
+    <cellStyle name="强调文字颜色 4" xfId="82" builtinId="41"/>
+    <cellStyle name="常规 2 11 2 2 2 2 2 2 3 2 2 2" xfId="83"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="84" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="85" builtinId="43"/>
+    <cellStyle name="常规 10 3 3 3" xfId="86"/>
+    <cellStyle name="强调文字颜色 5" xfId="87" builtinId="45"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 2 2" xfId="88"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="89" builtinId="47"/>
+    <cellStyle name="常规 2 11 2 2 2 2 2 4 2 2 2" xfId="90"/>
+    <cellStyle name="常规 13 2 2 2" xfId="91"/>
+    <cellStyle name="常规 2 11 2 2 2 2 2 4" xfId="92"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="93" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="94" builtinId="49"/>
+    <cellStyle name="适中 2" xfId="95"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="96" builtinId="51"/>
+    <cellStyle name="常规 13 2 2 3" xfId="97"/>
+    <cellStyle name="常规 2 11 2 2 2 2 2 5" xfId="98"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="99" builtinId="52"/>
+    <cellStyle name="常规 10 3 2 3 4 2" xfId="100"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="101"/>
+    <cellStyle name="输出 2 2 2" xfId="102"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="103"/>
+    <cellStyle name="常规 3 2 2" xfId="104"/>
     <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="105"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="106"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="107"/>
-    <cellStyle name="常规 3 2" xfId="108"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="109"/>
-    <cellStyle name="常规 3 3" xfId="110"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="111"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="106"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="107"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="108"/>
+    <cellStyle name="常规 3 2" xfId="109"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="110"/>
+    <cellStyle name="常规 3 3" xfId="111"/>
     <cellStyle name="20% - 强调文字颜色 3 2" xfId="112"/>
     <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="113"/>
-    <cellStyle name="输出 2 2" xfId="114"/>
-    <cellStyle name="常规 10 3 2 3 4" xfId="115"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="116"/>
+    <cellStyle name="常规 10 3 2 3 4" xfId="114"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="115"/>
+    <cellStyle name="输出 2 2" xfId="116"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="117"/>
     <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="118"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="119"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="120"/>
-    <cellStyle name="常规 3 3 5" xfId="121"/>
-    <cellStyle name="常规 3" xfId="122"/>
+    <cellStyle name="常规 3" xfId="120"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="121"/>
+    <cellStyle name="常规 3 3 5" xfId="122"/>
     <cellStyle name="常规 8 2 2" xfId="123"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="124"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="125"/>
@@ -2495,46 +2495,46 @@
     <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="131"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="132"/>
     <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="133"/>
-    <cellStyle name="常规 10 5" xfId="134"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="135"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="134"/>
+    <cellStyle name="常规 10 5" xfId="135"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="136"/>
     <cellStyle name="常规 4 3 5" xfId="137"/>
-    <cellStyle name="常规 10 5 2" xfId="138"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="139"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="138"/>
+    <cellStyle name="常规 10 5 2" xfId="139"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="140"/>
-    <cellStyle name="常规 4 3 2 2 2" xfId="141"/>
-    <cellStyle name="常规 2 11 2 2 2 2 2 2 3 4 2" xfId="142"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="143"/>
+    <cellStyle name="常规 2 11 2 2 2 2 2 2 3 4 2" xfId="141"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="142"/>
+    <cellStyle name="常规 4 3 2 2 2" xfId="143"/>
     <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="144"/>
     <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="145"/>
-    <cellStyle name="常规 4 3 3 2 2" xfId="146"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="147"/>
-    <cellStyle name="计算 2 2" xfId="148"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="149"/>
-    <cellStyle name="计算 2 2 2" xfId="150"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="151"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="146"/>
+    <cellStyle name="常规 4 3 3 2 2" xfId="147"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="148"/>
+    <cellStyle name="计算 2 2" xfId="149"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="150"/>
+    <cellStyle name="计算 2 2 2" xfId="151"/>
     <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="152"/>
     <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="153"/>
-    <cellStyle name="常规 13 5 2" xfId="154"/>
-    <cellStyle name="检查单元格 2" xfId="155"/>
-    <cellStyle name="汇总 2 3" xfId="156"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="157"/>
-    <cellStyle name="检查单元格 2 2" xfId="158"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="159"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="154"/>
+    <cellStyle name="常规 13 5 2" xfId="155"/>
+    <cellStyle name="检查单元格 2" xfId="156"/>
+    <cellStyle name="汇总 2 3" xfId="157"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="158"/>
+    <cellStyle name="检查单元格 2 2" xfId="159"/>
     <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="160"/>
     <cellStyle name="40% - 强调文字颜色 5 2" xfId="161"/>
     <cellStyle name="好 2 3" xfId="162"/>
     <cellStyle name="常规 2 10 2 5" xfId="163"/>
     <cellStyle name="常规 2 11 2 2 2 2 2 3 3" xfId="164"/>
     <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="165"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="166"/>
-    <cellStyle name="常规 2 10 3" xfId="167"/>
-    <cellStyle name="常规 15" xfId="168"/>
+    <cellStyle name="常规 15" xfId="166"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="167"/>
+    <cellStyle name="常规 2 10 3" xfId="168"/>
     <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="169"/>
-    <cellStyle name="适中 2 2" xfId="170"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="171"/>
-    <cellStyle name="适中 2 2 2" xfId="172"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="173"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="170"/>
+    <cellStyle name="适中 2 2" xfId="171"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="172"/>
+    <cellStyle name="适中 2 2 2" xfId="173"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="174"/>
     <cellStyle name="常规 4 3 4" xfId="175"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2 2 2" xfId="176"/>
@@ -2550,35 +2550,35 @@
     <cellStyle name="60% - 强调文字颜色 2 2" xfId="186"/>
     <cellStyle name="常规 5 3" xfId="187"/>
     <cellStyle name="60% - 强调文字颜色 2 2 3" xfId="188"/>
-    <cellStyle name="常规 2 11 2 2 2 2 2 2 2" xfId="189"/>
-    <cellStyle name="60% - 强调文字颜色 3 2" xfId="190"/>
-    <cellStyle name="强调文字颜色 2 2 3" xfId="191"/>
-    <cellStyle name="常规 2 11 2 2 2 2 2 2 2 2" xfId="192"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="193"/>
+    <cellStyle name="60% - 强调文字颜色 3 2" xfId="189"/>
+    <cellStyle name="常规 2 11 2 2 2 2 2 2 2" xfId="190"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 2" xfId="191"/>
+    <cellStyle name="强调文字颜色 2 2 3" xfId="192"/>
+    <cellStyle name="常规 2 11 2 2 2 2 2 2 2 2" xfId="193"/>
     <cellStyle name="输出 2 3" xfId="194"/>
-    <cellStyle name="常规 2 11 2 2 2 2 2 2 2 2 2" xfId="195"/>
-    <cellStyle name="常规 10 3 2 3 5" xfId="196"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 2 2" xfId="197"/>
-    <cellStyle name="常规 2 11 2 2 2 2 2 2 2 3" xfId="198"/>
-    <cellStyle name="60% - 强调文字颜色 3 2 3" xfId="199"/>
-    <cellStyle name="常规 2 11 2 2 2 2 2 3 2" xfId="200"/>
-    <cellStyle name="60% - 强调文字颜色 4 2" xfId="201"/>
-    <cellStyle name="强调文字颜色 3 2 3" xfId="202"/>
-    <cellStyle name="常规 2 11 2 2 2 2 2 3 2 2" xfId="203"/>
-    <cellStyle name="60% - 强调文字颜色 4 2 2" xfId="204"/>
-    <cellStyle name="常规 13 2 2 2 2" xfId="205"/>
-    <cellStyle name="常规 2 11 2 2 2 2 2 4 2" xfId="206"/>
-    <cellStyle name="60% - 强调文字颜色 5 2" xfId="207"/>
-    <cellStyle name="强调文字颜色 4 2 3" xfId="208"/>
-    <cellStyle name="常规 2 11 2 2 2 2 2 4 2 2" xfId="209"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 2" xfId="210"/>
-    <cellStyle name="常规 2 11 2 2 2 2 2 4 2 3" xfId="211"/>
-    <cellStyle name="60% - 强调文字颜色 5 2 3" xfId="212"/>
-    <cellStyle name="常规 2 11 2 2 2 2 2 5 2" xfId="213"/>
-    <cellStyle name="60% - 强调文字颜色 6 2" xfId="214"/>
-    <cellStyle name="强调文字颜色 5 2 3" xfId="215"/>
-    <cellStyle name="常规 3 5 3" xfId="216"/>
-    <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="217"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 2 2" xfId="195"/>
+    <cellStyle name="常规 2 11 2 2 2 2 2 2 2 2 2" xfId="196"/>
+    <cellStyle name="常规 10 3 2 3 5" xfId="197"/>
+    <cellStyle name="60% - 强调文字颜色 3 2 3" xfId="198"/>
+    <cellStyle name="常规 2 11 2 2 2 2 2 2 2 3" xfId="199"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="200"/>
+    <cellStyle name="常规 2 11 2 2 2 2 2 3 2" xfId="201"/>
+    <cellStyle name="60% - 强调文字颜色 4 2 2" xfId="202"/>
+    <cellStyle name="强调文字颜色 3 2 3" xfId="203"/>
+    <cellStyle name="常规 2 11 2 2 2 2 2 3 2 2" xfId="204"/>
+    <cellStyle name="60% - 强调文字颜色 5 2" xfId="205"/>
+    <cellStyle name="常规 13 2 2 2 2" xfId="206"/>
+    <cellStyle name="常规 2 11 2 2 2 2 2 4 2" xfId="207"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 2" xfId="208"/>
+    <cellStyle name="强调文字颜色 4 2 3" xfId="209"/>
+    <cellStyle name="常规 2 11 2 2 2 2 2 4 2 2" xfId="210"/>
+    <cellStyle name="60% - 强调文字颜色 5 2 3" xfId="211"/>
+    <cellStyle name="常规 2 11 2 2 2 2 2 4 2 3" xfId="212"/>
+    <cellStyle name="60% - 强调文字颜色 6 2" xfId="213"/>
+    <cellStyle name="常规 2 11 2 2 2 2 2 5 2" xfId="214"/>
+    <cellStyle name="常规 3 5 3" xfId="215"/>
+    <cellStyle name="60% - 强调文字颜色 6 2 2" xfId="216"/>
+    <cellStyle name="强调文字颜色 5 2 3" xfId="217"/>
     <cellStyle name="60% - 强调文字颜色 6 2 2 2" xfId="218"/>
     <cellStyle name="60% - 强调文字颜色 6 2 3" xfId="219"/>
     <cellStyle name="标题 1 2" xfId="220"/>
@@ -2608,16 +2608,16 @@
     <cellStyle name="差 2 2 2" xfId="244"/>
     <cellStyle name="差 2 3" xfId="245"/>
     <cellStyle name="常规 2 10 4 2" xfId="246"/>
-    <cellStyle name="常规 16 2" xfId="247"/>
-    <cellStyle name="常规 10" xfId="248"/>
+    <cellStyle name="常规 10" xfId="247"/>
+    <cellStyle name="常规 16 2" xfId="248"/>
     <cellStyle name="常规 2 10 4 2 2" xfId="249"/>
     <cellStyle name="常规 10 2" xfId="250"/>
     <cellStyle name="常规 2 10 4 2 2 2" xfId="251"/>
     <cellStyle name="常规 10 2 2" xfId="252"/>
     <cellStyle name="常规 2 10 4 2 3" xfId="253"/>
     <cellStyle name="常规 10 3" xfId="254"/>
-    <cellStyle name="常规 3 7" xfId="255"/>
-    <cellStyle name="常规 10 3 2" xfId="256"/>
+    <cellStyle name="常规 10 3 2" xfId="255"/>
+    <cellStyle name="常规 3 7" xfId="256"/>
     <cellStyle name="常规 10 3 2 2" xfId="257"/>
     <cellStyle name="常规 10 3 2 2 2" xfId="258"/>
     <cellStyle name="常规 10 3 2 2 3" xfId="259"/>
@@ -2638,24 +2638,24 @@
     <cellStyle name="常规 3 2 3" xfId="274"/>
     <cellStyle name="常规 10 3 2 4 2" xfId="275"/>
     <cellStyle name="常规 10 3 2 5" xfId="276"/>
-    <cellStyle name="常规 2 11 2 2 2 2 2 2 3 2 2" xfId="277"/>
-    <cellStyle name="常规 10 3 3" xfId="278"/>
-    <cellStyle name="强调文字颜色 4 2" xfId="279"/>
-    <cellStyle name="常规 10 3 3 2 2" xfId="280"/>
-    <cellStyle name="常规 2 11 2 2 2 2 2 2 3 2 3" xfId="281"/>
-    <cellStyle name="常规 10 3 4" xfId="282"/>
+    <cellStyle name="常规 10 3 3" xfId="277"/>
+    <cellStyle name="常规 2 11 2 2 2 2 2 2 3 2 2" xfId="278"/>
+    <cellStyle name="常规 10 3 3 2 2" xfId="279"/>
+    <cellStyle name="强调文字颜色 4 2" xfId="280"/>
+    <cellStyle name="常规 10 3 4" xfId="281"/>
+    <cellStyle name="常规 2 11 2 2 2 2 2 2 3 2 3" xfId="282"/>
     <cellStyle name="常规 10 3 4 2" xfId="283"/>
-    <cellStyle name="常规 10 3 4 5" xfId="284"/>
-    <cellStyle name="常规 10 3 4 2 3" xfId="285"/>
+    <cellStyle name="常规 10 3 4 2 3" xfId="284"/>
+    <cellStyle name="常规 10 3 4 5" xfId="285"/>
     <cellStyle name="常规 10 3 4 3" xfId="286"/>
     <cellStyle name="常规 10 3 4 3 2" xfId="287"/>
     <cellStyle name="常规 10 3 4 3 3" xfId="288"/>
     <cellStyle name="常规 10 3 5" xfId="289"/>
     <cellStyle name="常规 10 3 6" xfId="290"/>
     <cellStyle name="常规 10 4" xfId="291"/>
-    <cellStyle name="常规 9 2" xfId="292"/>
-    <cellStyle name="常规 13 4 3 2 2" xfId="293"/>
-    <cellStyle name="常规 10 6" xfId="294"/>
+    <cellStyle name="常规 13 4 3 2 2" xfId="292"/>
+    <cellStyle name="常规 10 6" xfId="293"/>
+    <cellStyle name="常规 9 2" xfId="294"/>
     <cellStyle name="常规 2 10 4 3" xfId="295"/>
     <cellStyle name="常规 11" xfId="296"/>
     <cellStyle name="常规 2 10 4 4" xfId="297"/>
@@ -2665,18 +2665,18 @@
     <cellStyle name="常规 13 2" xfId="301"/>
     <cellStyle name="常规 13 2 2" xfId="302"/>
     <cellStyle name="常规 13 2 3" xfId="303"/>
-    <cellStyle name="解释性文本 2" xfId="304"/>
-    <cellStyle name="常规 13 2 3 2 2" xfId="305"/>
-    <cellStyle name="强调文字颜色 3 2 2 2" xfId="306"/>
-    <cellStyle name="常规 13 2 3 2 3" xfId="307"/>
+    <cellStyle name="常规 13 2 3 2 2" xfId="304"/>
+    <cellStyle name="解释性文本 2" xfId="305"/>
+    <cellStyle name="常规 13 2 3 2 3" xfId="306"/>
+    <cellStyle name="强调文字颜色 3 2 2 2" xfId="307"/>
     <cellStyle name="常规 13 2 3 3" xfId="308"/>
     <cellStyle name="常规 13 2 3 3 2" xfId="309"/>
     <cellStyle name="常规 13 2 3 3 2 2" xfId="310"/>
     <cellStyle name="常规 13 2 4" xfId="311"/>
     <cellStyle name="常规 2 10 5 2" xfId="312"/>
     <cellStyle name="常规 13 2 4 2" xfId="313"/>
-    <cellStyle name="常规 13 3 2 2" xfId="314"/>
-    <cellStyle name="常规 13 2 5" xfId="315"/>
+    <cellStyle name="常规 13 2 5" xfId="314"/>
+    <cellStyle name="常规 13 3 2 2" xfId="315"/>
     <cellStyle name="常规 13 3" xfId="316"/>
     <cellStyle name="常规 13 3 2" xfId="317"/>
     <cellStyle name="常规 13 3 3" xfId="318"/>
@@ -2688,61 +2688,61 @@
     <cellStyle name="常规 13 4 2 2 2" xfId="324"/>
     <cellStyle name="常规 13 4 2 3" xfId="325"/>
     <cellStyle name="常规 13 4 3" xfId="326"/>
-    <cellStyle name="常规 9" xfId="327"/>
-    <cellStyle name="常规 2 10 2 3 5" xfId="328"/>
-    <cellStyle name="常规 13 4 3 2" xfId="329"/>
+    <cellStyle name="常规 2 10 2 3 5" xfId="327"/>
+    <cellStyle name="常规 13 4 3 2" xfId="328"/>
+    <cellStyle name="常规 9" xfId="329"/>
     <cellStyle name="常规 13 4 3 3" xfId="330"/>
     <cellStyle name="常规 13 4 4" xfId="331"/>
     <cellStyle name="常规 13 4 4 2" xfId="332"/>
     <cellStyle name="常规 13 4 5" xfId="333"/>
-    <cellStyle name="输入 2 2 2" xfId="334"/>
-    <cellStyle name="常规 3 3 3 3 2" xfId="335"/>
-    <cellStyle name="常规 13 6" xfId="336"/>
-    <cellStyle name="常规 2 10 2" xfId="337"/>
-    <cellStyle name="常规 14" xfId="338"/>
-    <cellStyle name="常规 2 10 2 2" xfId="339"/>
-    <cellStyle name="常规 14 2" xfId="340"/>
-    <cellStyle name="常规 2 10 3 2" xfId="341"/>
-    <cellStyle name="常规 15 2" xfId="342"/>
-    <cellStyle name="常规 16" xfId="343"/>
-    <cellStyle name="检查单元格 2 2 2" xfId="344"/>
-    <cellStyle name="常规 2 10 4" xfId="345"/>
+    <cellStyle name="常规 3 3 3 3 2" xfId="334"/>
+    <cellStyle name="常规 13 6" xfId="335"/>
+    <cellStyle name="输入 2 2 2" xfId="336"/>
+    <cellStyle name="常规 14" xfId="337"/>
+    <cellStyle name="常规 2 10 2" xfId="338"/>
+    <cellStyle name="常规 14 2" xfId="339"/>
+    <cellStyle name="常规 2 10 2 2" xfId="340"/>
+    <cellStyle name="常规 15 2" xfId="341"/>
+    <cellStyle name="常规 2 10 3 2" xfId="342"/>
+    <cellStyle name="常规 2 10 4" xfId="343"/>
+    <cellStyle name="常规 16" xfId="344"/>
+    <cellStyle name="检查单元格 2 2 2" xfId="345"/>
     <cellStyle name="常规 4 4 2 2" xfId="346"/>
-    <cellStyle name="常规 2 10 5" xfId="347"/>
-    <cellStyle name="常规 17" xfId="348"/>
-    <cellStyle name="常规 3 3 4" xfId="349"/>
-    <cellStyle name="常规 2" xfId="350"/>
+    <cellStyle name="常规 17" xfId="347"/>
+    <cellStyle name="常规 2 10 5" xfId="348"/>
+    <cellStyle name="常规 2" xfId="349"/>
+    <cellStyle name="常规 3 3 4" xfId="350"/>
     <cellStyle name="常规 3 3 3 6" xfId="351"/>
     <cellStyle name="常规 2 10" xfId="352"/>
     <cellStyle name="常规 2 10 2 2 2" xfId="353"/>
     <cellStyle name="常规 2 10 2 2 2 2" xfId="354"/>
     <cellStyle name="常规 2 10 2 2 3" xfId="355"/>
     <cellStyle name="常规 2 10 2 3" xfId="356"/>
-    <cellStyle name="注释 2" xfId="357"/>
-    <cellStyle name="常规 2 10 2 3 2 2" xfId="358"/>
-    <cellStyle name="注释 2 2" xfId="359"/>
-    <cellStyle name="常规 2 10 2 3 2 2 2" xfId="360"/>
-    <cellStyle name="常规 3 3 3 4 5" xfId="361"/>
-    <cellStyle name="常规 7" xfId="362"/>
-    <cellStyle name="常规 2 10 2 3 3" xfId="363"/>
-    <cellStyle name="常规 7 2" xfId="364"/>
-    <cellStyle name="常规 2 10 2 3 3 2" xfId="365"/>
-    <cellStyle name="常规 7 2 2" xfId="366"/>
-    <cellStyle name="常规 2 10 2 3 3 2 2" xfId="367"/>
-    <cellStyle name="常规 8" xfId="368"/>
-    <cellStyle name="常规 2 10 2 3 4" xfId="369"/>
+    <cellStyle name="常规 2 10 2 3 2 2" xfId="357"/>
+    <cellStyle name="注释 2" xfId="358"/>
+    <cellStyle name="常规 2 10 2 3 2 2 2" xfId="359"/>
+    <cellStyle name="常规 3 3 3 4 5" xfId="360"/>
+    <cellStyle name="注释 2 2" xfId="361"/>
+    <cellStyle name="常规 2 10 2 3 3" xfId="362"/>
+    <cellStyle name="常规 7" xfId="363"/>
+    <cellStyle name="常规 2 10 2 3 3 2" xfId="364"/>
+    <cellStyle name="常规 7 2" xfId="365"/>
+    <cellStyle name="常规 2 10 2 3 3 2 2" xfId="366"/>
+    <cellStyle name="常规 7 2 2" xfId="367"/>
+    <cellStyle name="常规 2 10 2 3 4" xfId="368"/>
+    <cellStyle name="常规 8" xfId="369"/>
     <cellStyle name="好 2 2" xfId="370"/>
     <cellStyle name="常规 2 10 2 4" xfId="371"/>
     <cellStyle name="好 2 2 2" xfId="372"/>
     <cellStyle name="常规 2 11 2 2 2 2 2 2 3" xfId="373"/>
     <cellStyle name="常规 2 10 2 4 2" xfId="374"/>
-    <cellStyle name="常规 3 3 3 4 2" xfId="375"/>
-    <cellStyle name="常规 2 10 2 6" xfId="376"/>
-    <cellStyle name="常规 3 3 3 4 2 2" xfId="377"/>
-    <cellStyle name="常规 2 11 2 2 2 2 2 4 3" xfId="378"/>
-    <cellStyle name="常规 2 10 2 6 2" xfId="379"/>
-    <cellStyle name="常规 3 3 3 4 3" xfId="380"/>
-    <cellStyle name="常规 2 10 2 7" xfId="381"/>
+    <cellStyle name="常规 2 10 2 6" xfId="375"/>
+    <cellStyle name="常规 3 3 3 4 2" xfId="376"/>
+    <cellStyle name="常规 2 11 2 2 2 2 2 4 3" xfId="377"/>
+    <cellStyle name="常规 2 10 2 6 2" xfId="378"/>
+    <cellStyle name="常规 3 3 3 4 2 2" xfId="379"/>
+    <cellStyle name="常规 2 10 2 7" xfId="380"/>
+    <cellStyle name="常规 3 3 3 4 3" xfId="381"/>
     <cellStyle name="常规 2 10 3 2 2" xfId="382"/>
     <cellStyle name="常规 2 10 4 3 2" xfId="383"/>
     <cellStyle name="常规 2 10 4 3 2 2" xfId="384"/>
@@ -2754,27 +2754,27 @@
     <cellStyle name="常规 2 11 2 2 2 2 2 2 3 3 2" xfId="390"/>
     <cellStyle name="常规 2 11 2 2 2 2 2 2 3 3 2 2" xfId="391"/>
     <cellStyle name="常规 2 11 2 2 2 2 2 2 3 3 3" xfId="392"/>
-    <cellStyle name="常规 4 3 2 2" xfId="393"/>
-    <cellStyle name="常规 5 4 2" xfId="394"/>
-    <cellStyle name="常规 2 11 2 2 2 2 2 2 3 4" xfId="395"/>
-    <cellStyle name="常规 4 3 2 3" xfId="396"/>
-    <cellStyle name="常规 2 11 2 2 2 2 2 2 3 5" xfId="397"/>
+    <cellStyle name="常规 2 11 2 2 2 2 2 2 3 4" xfId="393"/>
+    <cellStyle name="常规 4 3 2 2" xfId="394"/>
+    <cellStyle name="常规 5 4 2" xfId="395"/>
+    <cellStyle name="常规 2 11 2 2 2 2 2 2 3 5" xfId="396"/>
+    <cellStyle name="常规 4 3 2 3" xfId="397"/>
     <cellStyle name="常规 2 11 2 2 2 2 2 2 4" xfId="398"/>
     <cellStyle name="常规 2 11 2 2 2 2 2 2 4 2" xfId="399"/>
     <cellStyle name="常规 2 11 2 2 2 2 2 2 5" xfId="400"/>
-    <cellStyle name="常规 3 3 3 4 2 2 2" xfId="401"/>
-    <cellStyle name="常规 2 11 2 2 2 2 2 4 3 2" xfId="402"/>
+    <cellStyle name="常规 2 11 2 2 2 2 2 4 3 2" xfId="401"/>
+    <cellStyle name="常规 3 3 3 4 2 2 2" xfId="402"/>
     <cellStyle name="常规 2 11 2 2 2 2 2 4 3 2 2" xfId="403"/>
     <cellStyle name="常规 2 11 2 2 2 2 2 4 3 3" xfId="404"/>
     <cellStyle name="强调文字颜色 1 2" xfId="405"/>
-    <cellStyle name="常规 3 3 3 4 2 3" xfId="406"/>
-    <cellStyle name="常规 2 11 2 2 2 2 2 4 4" xfId="407"/>
-    <cellStyle name="常规 3 3 3 2 3 3 2" xfId="408"/>
-    <cellStyle name="常规 2 11 2 2 2 2 2 4 5" xfId="409"/>
+    <cellStyle name="常规 2 11 2 2 2 2 2 4 4" xfId="406"/>
+    <cellStyle name="常规 3 3 3 4 2 3" xfId="407"/>
+    <cellStyle name="常规 2 11 2 2 2 2 2 4 5" xfId="408"/>
+    <cellStyle name="常规 3 3 3 2 3 3 2" xfId="409"/>
     <cellStyle name="常规 2 11 2 2 2 2 2 6" xfId="410"/>
     <cellStyle name="常规 2 15" xfId="411"/>
-    <cellStyle name="常规 3 3 4 2" xfId="412"/>
-    <cellStyle name="常规 2 2" xfId="413"/>
+    <cellStyle name="常规 2 2" xfId="412"/>
+    <cellStyle name="常规 3 3 4 2" xfId="413"/>
     <cellStyle name="常规 2 3" xfId="414"/>
     <cellStyle name="常规 2 3 2" xfId="415"/>
     <cellStyle name="常规 2 4" xfId="416"/>
@@ -2795,9 +2795,9 @@
     <cellStyle name="常规 3 3 3 2 3 2 2 2" xfId="431"/>
     <cellStyle name="常规 3 3 3 2 3 2 3" xfId="432"/>
     <cellStyle name="常规 3 3 3 2 3 3" xfId="433"/>
-    <cellStyle name="常规 3 3 3 2 3 3 2 2" xfId="434"/>
-    <cellStyle name="输入 2 3" xfId="435"/>
-    <cellStyle name="常规 3 3 3 4" xfId="436"/>
+    <cellStyle name="常规 3 3 3 4" xfId="434"/>
+    <cellStyle name="常规 3 3 3 2 3 3 2 2" xfId="435"/>
+    <cellStyle name="输入 2 3" xfId="436"/>
     <cellStyle name="常规 3 3 3 2 3 3 3" xfId="437"/>
     <cellStyle name="常规 3 3 3 2 3 4" xfId="438"/>
     <cellStyle name="常规 3 3 3 2 3 4 2" xfId="439"/>
@@ -2805,8 +2805,8 @@
     <cellStyle name="常规 3 3 3 2 4" xfId="441"/>
     <cellStyle name="常规 3 3 3 2 4 2" xfId="442"/>
     <cellStyle name="常规 3 3 3 2 5" xfId="443"/>
-    <cellStyle name="输入 2 2" xfId="444"/>
-    <cellStyle name="常规 3 3 3 3" xfId="445"/>
+    <cellStyle name="常规 3 3 3 3" xfId="444"/>
+    <cellStyle name="输入 2 2" xfId="445"/>
     <cellStyle name="常规 3 3 3 4 3 2" xfId="446"/>
     <cellStyle name="常规 3 3 3 4 3 3" xfId="447"/>
     <cellStyle name="常规 3 3 3 4 4" xfId="448"/>
@@ -2819,12 +2819,12 @@
     <cellStyle name="常规 3 4" xfId="455"/>
     <cellStyle name="常规 3 4 2" xfId="456"/>
     <cellStyle name="常规 3 4 2 2" xfId="457"/>
-    <cellStyle name="强调文字颜色 5 2" xfId="458"/>
-    <cellStyle name="常规 3 5" xfId="459"/>
-    <cellStyle name="强调文字颜色 5 2 2" xfId="460"/>
-    <cellStyle name="常规 3 5 2" xfId="461"/>
-    <cellStyle name="强调文字颜色 5 2 2 2" xfId="462"/>
-    <cellStyle name="常规 3 5 2 2" xfId="463"/>
+    <cellStyle name="常规 3 5" xfId="458"/>
+    <cellStyle name="强调文字颜色 5 2" xfId="459"/>
+    <cellStyle name="常规 3 5 2" xfId="460"/>
+    <cellStyle name="强调文字颜色 5 2 2" xfId="461"/>
+    <cellStyle name="常规 3 5 2 2" xfId="462"/>
+    <cellStyle name="强调文字颜色 5 2 2 2" xfId="463"/>
     <cellStyle name="常规 3 6" xfId="464"/>
     <cellStyle name="常规 3 6 2" xfId="465"/>
     <cellStyle name="常规 4" xfId="466"/>
@@ -2833,9 +2833,9 @@
     <cellStyle name="常规 4 4" xfId="469"/>
     <cellStyle name="常规 4 2 2 2" xfId="470"/>
     <cellStyle name="常规 4 4 2" xfId="471"/>
-    <cellStyle name="强调文字颜色 6 2" xfId="472"/>
-    <cellStyle name="常规 4 2 3" xfId="473"/>
-    <cellStyle name="常规 4 5" xfId="474"/>
+    <cellStyle name="常规 4 2 3" xfId="472"/>
+    <cellStyle name="常规 4 5" xfId="473"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="474"/>
     <cellStyle name="常规 4 3" xfId="475"/>
     <cellStyle name="常规 4 3 2" xfId="476"/>
     <cellStyle name="常规 5 4" xfId="477"/>
@@ -2843,15 +2843,15 @@
     <cellStyle name="常规 5 5" xfId="479"/>
     <cellStyle name="常规 4 3 3 2" xfId="480"/>
     <cellStyle name="常规 4 3 3 3" xfId="481"/>
-    <cellStyle name="强调文字颜色 6 2 2" xfId="482"/>
-    <cellStyle name="常规 4 5 2" xfId="483"/>
-    <cellStyle name="常规 7 4" xfId="484"/>
-    <cellStyle name="强调文字颜色 6 2 2 2" xfId="485"/>
-    <cellStyle name="常规 4 5 2 2" xfId="486"/>
-    <cellStyle name="常规 7 4 2" xfId="487"/>
-    <cellStyle name="强调文字颜色 6 2 3" xfId="488"/>
-    <cellStyle name="常规 4 5 3" xfId="489"/>
-    <cellStyle name="常规 7 5" xfId="490"/>
+    <cellStyle name="常规 4 5 2" xfId="482"/>
+    <cellStyle name="常规 7 4" xfId="483"/>
+    <cellStyle name="强调文字颜色 6 2 2" xfId="484"/>
+    <cellStyle name="常规 4 5 2 2" xfId="485"/>
+    <cellStyle name="常规 7 4 2" xfId="486"/>
+    <cellStyle name="强调文字颜色 6 2 2 2" xfId="487"/>
+    <cellStyle name="常规 4 5 3" xfId="488"/>
+    <cellStyle name="常规 7 5" xfId="489"/>
+    <cellStyle name="强调文字颜色 6 2 3" xfId="490"/>
     <cellStyle name="常规 4 6" xfId="491"/>
     <cellStyle name="常规 4 6 2" xfId="492"/>
     <cellStyle name="常规 4 7" xfId="493"/>
@@ -3216,18 +3216,18 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozenSplit"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="10" customWidth="1"/>
-    <col min="2" max="2" width="106.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="10" customWidth="1"/>
-    <col min="5" max="6" width="35.75" style="10" customWidth="1"/>
+    <col min="1" max="1" width="12.2545454545455" style="10" customWidth="1"/>
+    <col min="2" max="2" width="106.627272727273" style="10" customWidth="1"/>
+    <col min="3" max="3" width="18.3727272727273" style="10" customWidth="1"/>
+    <col min="4" max="4" width="8.62727272727273" style="10" customWidth="1"/>
+    <col min="5" max="6" width="35.7545454545455" style="10" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3677,15 +3677,15 @@
       </c>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="20">
+      <c r="D35" s="10">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:P35">
+  <autoFilter ref="A5:P34">
     <extLst/>
   </autoFilter>
-  <conditionalFormatting sqref="D1:D35">
+  <conditionalFormatting sqref="D1:D34">
     <cfRule type="cellIs" dxfId="0" priority="54" operator="equal">
       <formula>4</formula>
     </cfRule>
@@ -3699,7 +3699,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36:D1048576">
+  <conditionalFormatting sqref="D35:D1048576">
     <cfRule type="cellIs" dxfId="0" priority="210" operator="equal">
       <formula>4</formula>
     </cfRule>
@@ -3714,11 +3714,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A23 A35:A1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="194"/>
     <cfRule type="duplicateValues" dxfId="4" priority="2860"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="194"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D22 D23:D35 D36:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D22 D23:D34 D35:D1048576">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3742,7 +3742,7 @@
   <cols>
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3727272727273" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3828,133 +3828,133 @@
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" ht="17.25" spans="1:3">
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>1090001</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" ht="17.25" spans="1:3">
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>1100001</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" ht="17.25" spans="1:3">
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>1110001</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" ht="17.25" spans="1:3">
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>1120001</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" ht="17.25" spans="1:3">
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>1130001</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" ht="17.25" spans="1:3">
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>1140001</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" ht="17.25" spans="1:3">
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>1150001</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" ht="17.25" spans="1:3">
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>1160001</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" ht="17.25" spans="1:3">
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>1170001</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" ht="17.25" spans="1:3">
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>1180001</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" ht="17.25" spans="1:3">
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>1190001</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" ht="17.25" spans="1:3">
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>1200001</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" ht="17.25" spans="1:3">
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>1210001</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" ht="17.25" spans="1:3">
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>1220001</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" ht="17.25" spans="1:3">
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>1230001</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" ht="17.25" spans="1:3">
+    <row r="26" spans="1:3">
       <c r="A26" s="2">
         <v>1240001</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" ht="17.25" spans="1:3">
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>1250001</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" ht="17.25" spans="1:3">
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>1260001</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" ht="17.25" spans="1:3">
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>1270001</v>
       </c>
@@ -3970,28 +3970,28 @@
       </c>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" ht="17.25" spans="1:3">
+    <row r="31" spans="1:3">
       <c r="A31" s="2">
         <v>2020001</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" ht="17.25" spans="1:3">
+    <row r="32" spans="1:3">
       <c r="A32" s="2">
         <v>2030001</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" ht="17.25" spans="1:3">
+    <row r="33" spans="1:3">
       <c r="A33" s="2">
         <v>2040001</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" ht="17.25" spans="1:3">
+    <row r="34" spans="1:3">
       <c r="A34" s="2">
         <v>3010001</v>
       </c>
@@ -4000,28 +4000,28 @@
       </c>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" ht="17.25" spans="1:3">
+    <row r="35" spans="1:3">
       <c r="A35" s="2">
         <v>3020001</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" ht="17.25" spans="1:3">
+    <row r="36" spans="1:3">
       <c r="A36" s="2">
         <v>3030001</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" ht="17.25" spans="1:3">
+    <row r="37" spans="1:3">
       <c r="A37" s="2">
         <v>3040001</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" ht="17.25" spans="1:3">
+    <row r="38" spans="1:3">
       <c r="A38" s="2">
         <v>3050001</v>
       </c>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" ht="17.25" spans="1:3">
+    <row r="56" spans="1:3">
       <c r="A56" s="2">
         <v>6010001</v>
       </c>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" ht="17.25" spans="1:3">
+    <row r="57" spans="1:3">
       <c r="A57" s="2">
         <v>7010001</v>
       </c>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="C57" s="4"/>
     </row>
-    <row r="58" ht="17.25" spans="1:3">
+    <row r="58" spans="1:3">
       <c r="A58" s="2">
         <v>7020001</v>
       </c>
